--- a/src/vlinder/data/NEMO/xlsx/NEMO.xlsx
+++ b/src/vlinder/data/NEMO/xlsx/NEMO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/vlinder/trbs/src/vlinder/data/NEMO/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/Aangepast_report/trbs/src/vlinder/data/NEMO/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347F3016-3D1A-C249-815D-61CD82ACA983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD99576-54DC-4F41-9BAB-BF5BF32C7C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="280" windowWidth="34560" windowHeight="22060" tabRatio="838" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="300" windowWidth="34560" windowHeight="20700" tabRatio="838" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="244">
   <si>
     <t>configuration</t>
   </si>
@@ -747,6 +747,42 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Optimize_DMO_name</t>
+  </si>
+  <si>
+    <t>report_title_page</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>report_strategic_challenge</t>
+  </si>
+  <si>
+    <t>report_key_outputs_theme</t>
+  </si>
+  <si>
+    <t>report_decision_makers_options</t>
+  </si>
+  <si>
+    <t>report_scenarios</t>
+  </si>
+  <si>
+    <t>report_fixed_inputs</t>
+  </si>
+  <si>
+    <t>report_dependencies</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>report_weighted_appreciations</t>
+  </si>
+  <si>
+    <t>report_add_optimize</t>
   </si>
 </sst>
 </file>
@@ -987,8 +1023,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1FD10895-72A3-7148-9AC0-E24F8F49DC8D}"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1288,15 +1324,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1313,6 +1350,83 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1414,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2022,7 +2136,7 @@
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3528,7 +3642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4012,7 +4126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
@@ -5559,6 +5673,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010078972B45B3512246B049E33E4C8B82A1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="89df7d70eeacd5f5a753fc94d588cad8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1089c0f-0ce1-4747-9bed-ba9733ad8884" xmlns:ns3="d1f1a6e1-3483-4b35-8ac1-d80a2fe4a236" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1292992725cef9a269b0ba6840cd95a7" ns2:_="" ns3:_="">
     <xsd:import namespace="a1089c0f-0ce1-4747-9bed-ba9733ad8884"/>
@@ -5775,7 +5898,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1089c0f-0ce1-4747-9bed-ba9733ad8884">
@@ -5786,16 +5909,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D77676A3-6EED-4C7B-9C5A-0DFE980047C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CFFDE31-9BF1-4E50-B14E-C43BED069A0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5814,7 +5936,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9546D799-C611-4055-AA14-7439D80502BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5823,12 +5945,4 @@
     <ds:schemaRef ds:uri="d1f1a6e1-3483-4b35-8ac1-d80a2fe4a236"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D77676A3-6EED-4C7B-9C5A-0DFE980047C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/vlinder/data/NEMO/xlsx/NEMO.xlsx
+++ b/src/vlinder/data/NEMO/xlsx/NEMO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/Aangepast_report/trbs/src/vlinder/data/NEMO/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/vlinder/trbs-dev/src/vlinder/data/NEMO/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD99576-54DC-4F41-9BAB-BF5BF32C7C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3AC2C0-3072-514D-9495-D666F0AD6520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="34560" windowHeight="20700" tabRatio="838" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" tabRatio="838" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="243">
   <si>
     <t>configuration</t>
   </si>
@@ -780,9 +780,6 @@
   </si>
   <si>
     <t>report_weighted_appreciations</t>
-  </si>
-  <si>
-    <t>report_add_optimize</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1020,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{1FD10895-72A3-7148-9AC0-E24F8F49DC8D}"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1324,10 +1321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1419,14 +1416,6 @@
       </c>
       <c r="B11" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1528,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -5673,12 +5662,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1089c0f-0ce1-4747-9bed-ba9733ad8884">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d1f1a6e1-3483-4b35-8ac1-d80a2fe4a236" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5899,20 +5890,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a1089c0f-0ce1-4747-9bed-ba9733ad8884">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="d1f1a6e1-3483-4b35-8ac1-d80a2fe4a236" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D77676A3-6EED-4C7B-9C5A-0DFE980047C3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9546D799-C611-4055-AA14-7439D80502BF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a1089c0f-0ce1-4747-9bed-ba9733ad8884"/>
+    <ds:schemaRef ds:uri="d1f1a6e1-3483-4b35-8ac1-d80a2fe4a236"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5937,12 +5929,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9546D799-C611-4055-AA14-7439D80502BF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D77676A3-6EED-4C7B-9C5A-0DFE980047C3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a1089c0f-0ce1-4747-9bed-ba9733ad8884"/>
-    <ds:schemaRef ds:uri="d1f1a6e1-3483-4b35-8ac1-d80a2fe4a236"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>